--- a/data/test/leaderboard.xlsx
+++ b/data/test/leaderboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>rank</t>
   </si>
@@ -85,34 +85,37 @@
     <t>sarath</t>
   </si>
   <si>
+    <t>kumaran47@gmail.com</t>
+  </si>
+  <si>
     <t>sonal.agrawal9947@gmail.com</t>
   </si>
   <si>
-    <t>kumaran47@gmail.com</t>
+    <t>srevuri2@gmail.com</t>
+  </si>
+  <si>
+    <t>flowervalli@gmail.com</t>
   </si>
   <si>
     <t>quadri.yousuf8@gmail.com</t>
   </si>
   <si>
-    <t>srevuri2@gmail.com</t>
-  </si>
-  <si>
-    <t>flowervalli@gmail.com</t>
-  </si>
-  <si>
     <t>keerthanasenthil02@gmail.com</t>
   </si>
   <si>
     <t>joacatar@gmail.com</t>
   </si>
   <si>
+    <t>rameshsankars@gmail.com</t>
+  </si>
+  <si>
     <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
     <t>simhadri.bobba@gmail.com</t>
   </si>
   <si>
-    <t>rameshsankars@gmail.com</t>
+    <t>vamsikrishnabattineedi@gmail.com</t>
   </si>
   <si>
     <t>jaswanthrajeti@gmail.com</t>
@@ -121,10 +124,10 @@
     <t>jyothsna.munipalle@gmail.com</t>
   </si>
   <si>
-    <t>vamsikrishnabattineedi@gmail.com</t>
-  </si>
-  <si>
     <t>tarunbc29@gmail.com</t>
+  </si>
+  <si>
+    <t>test.jpg</t>
   </si>
   <si>
     <t>kalyan9999@live.com</t>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +570,7 @@
         <v>1800</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -593,7 +596,7 @@
         <v>1800</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -619,7 +622,7 @@
         <v>1700</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -645,7 +648,7 @@
         <v>1600</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -671,7 +674,7 @@
         <v>1450</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -697,7 +700,7 @@
         <v>1360</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -723,7 +726,7 @@
         <v>1360</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -749,7 +752,7 @@
         <v>1250</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -775,7 +778,7 @@
         <v>1200</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -801,7 +804,7 @@
         <v>1200</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -827,7 +830,7 @@
         <v>1070</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -853,7 +856,7 @@
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -879,7 +882,7 @@
         <v>980</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -905,7 +908,7 @@
         <v>900</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -931,7 +934,7 @@
         <v>870</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -945,19 +948,19 @@
         <v>20000</v>
       </c>
       <c r="D17">
-        <v>2190</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>35.04</v>
+        <v>3.6</v>
       </c>
       <c r="F17">
-        <v>72</v>
+        <v>3.6</v>
       </c>
       <c r="G17">
         <v>760</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -971,19 +974,19 @@
         <v>20000</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>2190</v>
       </c>
       <c r="E18">
-        <v>3.6</v>
+        <v>35.04</v>
       </c>
       <c r="F18">
-        <v>3.6</v>
+        <v>72</v>
       </c>
       <c r="G18">
         <v>760</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -994,22 +997,22 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>9858</v>
+        <v>788</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>32.54</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="G19">
         <v>650</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1020,22 +1023,22 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>788</v>
+        <v>106</v>
       </c>
       <c r="D20">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>32.54</v>
+        <v>353.88</v>
       </c>
       <c r="F20">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="G20">
         <v>650</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1046,22 +1049,22 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>106</v>
+        <v>9858</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>353.88</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>650</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1087,7 +1090,7 @@
         <v>600</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1113,7 +1116,7 @@
         <v>600</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1127,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>600</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1153,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="E25">
-        <v>1690</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="G25">
         <v>600</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1182,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="F26">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="G26">
         <v>600</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1202,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>24198</v>
+        <v>20144</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1225,7 +1228,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>21664</v>
+        <v>24198</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1248,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="C29">
-        <v>20144</v>
+        <v>21664</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1294,19 +1297,22 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>14148</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="F31">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="G31">
-        <v>270</v>
+        <v>300</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1317,18 +1323,41 @@
         <v>38</v>
       </c>
       <c r="C32">
+        <v>14148</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>338</v>
+      </c>
+      <c r="G32">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
         <v>13466</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>270</v>
       </c>
     </row>

--- a/data/test/leaderboard.xlsx
+++ b/data/test/leaderboard.xlsx
@@ -112,22 +112,22 @@
     <t>kundanikareddyb@gmail.com</t>
   </si>
   <si>
+    <t>test.jpg</t>
+  </si>
+  <si>
     <t>simhadri.bobba@gmail.com</t>
   </si>
   <si>
+    <t>jaswanthrajeti@gmail.com</t>
+  </si>
+  <si>
+    <t>jyothsna.munipalle@gmail.com</t>
+  </si>
+  <si>
     <t>vamsikrishnabattineedi@gmail.com</t>
   </si>
   <si>
-    <t>jaswanthrajeti@gmail.com</t>
-  </si>
-  <si>
-    <t>jyothsna.munipalle@gmail.com</t>
-  </si>
-  <si>
     <t>tarunbc29@gmail.com</t>
-  </si>
-  <si>
-    <t>test.jpg</t>
   </si>
   <si>
     <t>kalyan9999@live.com</t>
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1690</v>
+        <v>17.46</v>
       </c>
       <c r="F26">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G26">
         <v>600</v>
@@ -1205,19 +1205,22 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>20144</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G27">
-        <v>500</v>
+        <v>600</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1274,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>20042</v>
+        <v>20144</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1297,22 +1300,19 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>20042</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>8.73</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>300</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:8">
